--- a/AI/시가갭검색식인공지능/stock_data_2023-08-28.xlsx
+++ b/AI/시가갭검색식인공지능/stock_data_2023-08-28.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365eulji-my.sharepoint.com/personal/2022162023_stuoffice_eulji_ac_kr/Documents/kiwoom/SystemTrading/AI/시가갭검색식인공지능/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B3AF4E537FB60A033A59B5A81486E62386121A13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC478AB7-D203-405C-9D7D-34D3F3A7B6FA}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_B3AF4E537FB60A033A59B5A81486E62386121A13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{632B2DA0-2290-4816-AD01-5D9A7A641ABE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16530" yWindow="1830" windowWidth="28800" windowHeight="11295" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="삼영" sheetId="1" r:id="rId1"/>
@@ -10462,7 +10462,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -10527,7 +10527,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -10543,6 +10543,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10832,7 +10836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -25924,9 +25928,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="39.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
